--- a/docss/trend/malta/E_huntington.xlsx
+++ b/docss/trend/malta/E_huntington.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\malta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\malta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B1" sqref="B1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>1.7008700668811798</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="C2" s="7">
-        <v>1.0025062561035156</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D2" s="7">
-        <v>2.3821653425693512</v>
+        <v>2.3820000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1597,13 @@
         <v>2000</v>
       </c>
       <c r="B3" s="7">
-        <v>0.75260487198829651</v>
+        <v>0.753</v>
       </c>
       <c r="C3" s="7">
-        <v>0.49302718043327332</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="D3" s="7">
-        <v>0.95699268579483032</v>
+        <v>0.95699999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1611,13 @@
         <v>2001</v>
       </c>
       <c r="B4" s="7">
-        <v>0.24361385405063629</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>0.49143502116203308</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1625,13 @@
         <v>2002</v>
       </c>
       <c r="B5" s="7">
-        <v>0.72674758732318878</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="C5" s="7">
-        <v>1.079955518245697</v>
+        <v>1.08</v>
       </c>
       <c r="D5" s="7">
-        <v>0.44283711910247803</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1639,13 @@
         <v>2003</v>
       </c>
       <c r="B6" s="7">
-        <v>1.7153999656438828</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="C6" s="7">
-        <v>1.8546610176563263</v>
+        <v>1.855</v>
       </c>
       <c r="D6" s="7">
-        <v>1.48589988052845</v>
+        <v>1.486</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>2004</v>
       </c>
       <c r="B7" s="7">
-        <v>1.3276253342628479</v>
+        <v>1.3280000000000001</v>
       </c>
       <c r="C7" s="7">
-        <v>2.0228334963321686</v>
+        <v>2.0230000000000001</v>
       </c>
       <c r="D7" s="7">
-        <v>0.71623319387435913</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,10 +1667,10 @@
         <v>2005</v>
       </c>
       <c r="B8" s="7">
-        <v>1.0189835131168365</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="C8" s="7">
-        <v>2.3111734092235565</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
@@ -1681,13 +1681,13 @@
         <v>2006</v>
       </c>
       <c r="B9" s="7">
-        <v>0.83703246712684631</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="C9" s="7">
-        <v>0.45934772491455078</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D9" s="7">
-        <v>1.0791975259780884</v>
+        <v>1.079</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>2007</v>
       </c>
       <c r="B10" s="7">
-        <v>1.8147580027580261</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="C10" s="7">
-        <v>2.1820173859596252</v>
+        <v>2.1819999999999999</v>
       </c>
       <c r="D10" s="7">
-        <v>1.4756249785423279</v>
+        <v>1.476</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1709,13 @@
         <v>2008</v>
       </c>
       <c r="B11" s="7">
-        <v>1.0979747176170349</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="C11" s="7">
-        <v>1.7574991881847382</v>
+        <v>1.7569999999999999</v>
       </c>
       <c r="D11" s="7">
-        <v>0.55652725696563721</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1723,13 @@
         <v>2009</v>
       </c>
       <c r="B12" s="7">
-        <v>2.8470340967178345</v>
+        <v>2.847</v>
       </c>
       <c r="C12" s="7">
-        <v>1.7664512991905212</v>
+        <v>1.766</v>
       </c>
       <c r="D12" s="7">
-        <v>3.9117742925882339</v>
+        <v>3.9119999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>2010</v>
       </c>
       <c r="B13" s="7">
-        <v>1.6001178622245789</v>
+        <v>1.6</v>
       </c>
       <c r="C13" s="7">
-        <v>2.0479303896427155</v>
+        <v>2.048</v>
       </c>
       <c r="D13" s="7">
-        <v>1.1258805394172668</v>
+        <v>1.1259999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1751,13 @@
         <v>2011</v>
       </c>
       <c r="B14" s="7">
-        <v>1.949366420507431</v>
+        <v>1.9490000000000001</v>
       </c>
       <c r="C14" s="7">
-        <v>1.667549729347229</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="D14" s="7">
-        <v>2.0978902578353882</v>
+        <v>2.0979999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1765,13 @@
         <v>2012</v>
       </c>
       <c r="B15" s="7">
-        <v>1.2049563527107239</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="C15" s="7">
-        <v>0.92372661828994751</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D15" s="7">
-        <v>1.4669539630413055</v>
+        <v>1.4670000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1779,13 @@
         <v>2013</v>
       </c>
       <c r="B16" s="7">
-        <v>0.91169969737529755</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="C16" s="7">
-        <v>0.43698108196258545</v>
+        <v>0.437</v>
       </c>
       <c r="D16" s="7">
-        <v>1.3281618058681488</v>
+        <v>1.3280000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1793,13 @@
         <v>2014</v>
       </c>
       <c r="B17" s="7">
-        <v>1.2197413593530655</v>
+        <v>1.22</v>
       </c>
       <c r="C17" s="7">
-        <v>1.2622416019439697</v>
+        <v>1.262</v>
       </c>
       <c r="D17" s="7">
-        <v>1.1007596701383591</v>
+        <v>1.101</v>
       </c>
     </row>
   </sheetData>
